--- a/健身菜單.xlsx
+++ b/健身菜單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSU\OneDrive\桌面\python\project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B6CE2ADF-8519-4E22-AB84-BF642C5C87C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC2210D9-F1BA-464E-913D-37301F1C32E8}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{B6CE2ADF-8519-4E22-AB84-BF642C5C87C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{868BB957-1720-4DA1-B40C-D5B34B66BDCE}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="504" windowWidth="28236" windowHeight="15936" xr2:uid="{419F115D-B3B4-C243-833F-3C14432A8CF1}"/>
+    <workbookView xWindow="276" yWindow="504" windowWidth="28236" windowHeight="15936" activeTab="5" xr2:uid="{419F115D-B3B4-C243-833F-3C14432A8CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="胸肌群" sheetId="1" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F9344-78E4-304B-B448-9741597F2591}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2051,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201B6CC-941B-4070-B43E-DE17755244DA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
@@ -2166,6 +2166,108 @@
         <v>188</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="64.8">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.6">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48.6">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64.8">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.4">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64.8">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2175,6 +2277,12 @@
     <hyperlink ref="D6" r:id="rId4" xr:uid="{BC5B0F77-3BC1-48B9-AE0A-B9177FA42EE3}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{9B220B4B-0317-43DC-AA6B-CB7E44404E13}"/>
     <hyperlink ref="D5" r:id="rId6" xr:uid="{AA7950E5-3914-43A0-B802-21FB79BCC93F}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{03A057AD-DF90-4DDA-B961-05C91FA62AC4}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{AFFD8BC6-AB69-4F46-9DBF-3946CEDBDE89}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{C2FDC980-5977-4B71-8C32-95C60EA6592C}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{8FD25E92-8E04-4109-BB28-D270C30CA75C}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{9FE7F1B0-C80E-43E4-B6D2-9867E1C49686}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{BF25378F-48CE-4492-B158-8926D0C90877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2182,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C587F2-22C1-4CA2-8455-A0DC792065ED}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
@@ -2194,119 +2302,8 @@
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="64.8">
-      <c r="A1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48.6">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="48.6">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="64.8">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32.4">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64.8">
-      <c r="A6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{03A057AD-DF90-4DDA-B961-05C91FA62AC4}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{AFFD8BC6-AB69-4F46-9DBF-3946CEDBDE89}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{C2FDC980-5977-4B71-8C32-95C60EA6592C}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{8FD25E92-8E04-4109-BB28-D270C30CA75C}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{9FE7F1B0-C80E-43E4-B6D2-9867E1C49686}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{BF25378F-48CE-4492-B158-8926D0C90877}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/健身菜單.xlsx
+++ b/健身菜單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSU\OneDrive\桌面\python\project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{B6CE2ADF-8519-4E22-AB84-BF642C5C87C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{868BB957-1720-4DA1-B40C-D5B34B66BDCE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{B6CE2ADF-8519-4E22-AB84-BF642C5C87C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5401B7-3AF2-40BF-AA33-2B175E428B4D}"/>
   <bookViews>
     <workbookView xWindow="276" yWindow="504" windowWidth="28236" windowHeight="15936" activeTab="5" xr2:uid="{419F115D-B3B4-C243-833F-3C14432A8CF1}"/>
   </bookViews>
@@ -19,8 +19,6 @@
     <sheet name="手臂肌群" sheetId="4" r:id="rId4"/>
     <sheet name="腹肌(核心)" sheetId="5" r:id="rId5"/>
     <sheet name="腿部肌群" sheetId="6" r:id="rId6"/>
-    <sheet name="臀部肌群" sheetId="7" r:id="rId7"/>
-    <sheet name="伸展" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="208">
   <si>
     <t>槓鈴平板臥推</t>
   </si>
@@ -520,9 +518,6 @@
     <t>向上90度抬起一腳，同時合手、上半身轉向屈腳側。左右交替共重複40下</t>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Hk5QsWFPh_k</t>
   </si>
   <si>
@@ -547,9 +542,6 @@
     <t>兩腳稍微離開地面，直直升起一腳和身體呈90度，伸兩手在腳後方互拍一下，放下腳時維持抬起勿觸碰地面。左右腳交替共10下</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ghwNOgmYsz0</t>
   </si>
   <si>
@@ -562,9 +554,6 @@
     <t>兩腳合併升起和身體呈90度，同時微微抬起上半身，雙手伸直靠近小腿脛骨，放下雙手雙腳但不觸碰地面(身體呈現船型)。重複動作15下</t>
   </si>
   <si>
-    <t>高</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ghwNOgmYsz1</t>
   </si>
   <si>
@@ -728,84 +717,6 @@
   </si>
   <si>
     <t>23:55-25:10</t>
-  </si>
-  <si>
-    <t>下犬式</t>
-  </si>
-  <si>
-    <t>呈跪坐姿勢，上半身壓低並伸直雙手，固定手和腳尖位置，身體拱起呈現倒V字型，上半身盡量向膝蓋方向貼近，一腳微屈，一腳向下踩貼合地面。一次5秒，左右交替共重複4組</t>
-  </si>
-  <si>
-    <t>小腿</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DjZchkG5unM&amp;list=PLH1wOkRpwVu9TeEoIgFgwTq-EI_IhNxec&amp;index=6</t>
-  </si>
-  <si>
-    <t>0:50-1:26</t>
-  </si>
-  <si>
-    <t>低弓步拉伸</t>
-  </si>
-  <si>
-    <t>一腳向前跨，作低弓步使後側腿伸直，膝蓋與小腿貼合地面，背部盡量向後彎曲伸展。左右各維持20秒</t>
-  </si>
-  <si>
-    <t>大腿前側</t>
-  </si>
-  <si>
-    <t>2:07-2:37</t>
-  </si>
-  <si>
-    <t>駱駝式</t>
-  </si>
-  <si>
-    <t>跪姿，雙腳與肩同寬，手叉腰將臀部向前推，背部向後彎曲，雙手改握住腳踝使身體圍成一個方形。維持20秒</t>
-  </si>
-  <si>
-    <t>背部</t>
-  </si>
-  <si>
-    <t>12:17-12:35</t>
-  </si>
-  <si>
-    <t>眼鏡蛇式</t>
-  </si>
-  <si>
-    <t>趴姿，用手掌撐地，抬起上半身並盡量向後彎曲。維持10秒</t>
-  </si>
-  <si>
-    <t>腹部</t>
-  </si>
-  <si>
-    <t>7:36-7:50</t>
-  </si>
-  <si>
-    <t>蝴蝶式</t>
-  </si>
-  <si>
-    <t>雙腳對掌坐姿，挺直上半身，一手抓住對側膝蓋，另一手反向向上拉伸。左右交替共重複10組</t>
-  </si>
-  <si>
-    <t>大腿內側、髖關節</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y5cZqHRkcJk</t>
-  </si>
-  <si>
-    <t>1:09-2:05</t>
-  </si>
-  <si>
-    <t>鴿式</t>
-  </si>
-  <si>
-    <t>坐姿，一腳固定姿勢，一腳向後伸直貼合地面，挺直上半身。左右各維持10秒</t>
-  </si>
-  <si>
-    <t>臀部、大腿外側</t>
-  </si>
-  <si>
-    <t>14:41-15:</t>
   </si>
 </sst>
 </file>
@@ -1921,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB58556-88B6-4040-A845-1F4A3E981DE1}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
@@ -1933,117 +1844,99 @@
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48.6">
+    <row r="1" spans="1:4" ht="48.6">
       <c r="A1" t="s">
         <v>139</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="81">
+      <c r="A2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="81">
-      <c r="A2" t="s">
+      <c r="B2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="64.8">
+      <c r="A3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="64.8">
-      <c r="A3" t="s">
+      <c r="B3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="64.8">
+      <c r="A4" t="s">
         <v>151</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="64.8">
-      <c r="A4" t="s">
+      <c r="C4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="48.6">
+      <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="48.6">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="48.6">
+      <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48.6">
-      <c r="A6" t="s">
+      <c r="D6" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{0C6C8822-BCDE-4CF4-8F14-A317E9455549}"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://www.youtube.com/watch?v=Hk5QsWFPh_k" xr:uid="{B60C912D-AD8A-40FB-9C40-C578DCF3D2A5}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{B9B9CDA3-2CF2-4CE8-A19B-A431BADE6B6B}"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://www.youtube.com/watch?v=ghwNOgmYsz0" xr:uid="{B11207B6-9AEB-41FC-BF05-EF346EB89C20}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{BD732590-471A-4670-BF86-4FED8EA6C68F}"/>
-    <hyperlink ref="D6" r:id="rId6" display="https://www.youtube.com/watch?v=4Ct5PxoFy4M&amp;t=229s" xr:uid="{8225977A-3101-46DC-B7EE-F67E0A399DAF}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{0C6C8822-BCDE-4CF4-8F14-A317E9455549}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.youtube.com/watch?v=Hk5QsWFPh_k" xr:uid="{B60C912D-AD8A-40FB-9C40-C578DCF3D2A5}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{B9B9CDA3-2CF2-4CE8-A19B-A431BADE6B6B}"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://www.youtube.com/watch?v=ghwNOgmYsz0" xr:uid="{B11207B6-9AEB-41FC-BF05-EF346EB89C20}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{BD732590-471A-4670-BF86-4FED8EA6C68F}"/>
+    <hyperlink ref="C6" r:id="rId6" display="https://www.youtube.com/watch?v=4Ct5PxoFy4M&amp;t=229s" xr:uid="{8225977A-3101-46DC-B7EE-F67E0A399DAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2051,388 +1944,202 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201B6CC-941B-4070-B43E-DE17755244DA}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4">
+    <row r="1" spans="1:4" ht="32.4">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="64.8">
+      <c r="A2" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="64.8">
-      <c r="A2" t="s">
+      <c r="D2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="48.6">
+      <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="48.6">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="48.6">
+      <c r="A4" t="s">
         <v>175</v>
       </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="48.6">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="32.4">
+      <c r="A5" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" ht="48.6">
+      <c r="A6" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48.6">
-      <c r="A6" t="s">
+      <c r="D6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="64.8">
+      <c r="A7" t="s">
         <v>186</v>
       </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="64.8">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="48.6">
+      <c r="A8" t="s">
         <v>190</v>
       </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C8" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="48.6">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48.6">
+      <c r="A9" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48.6">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="64.8">
+      <c r="A10" t="s">
         <v>197</v>
       </c>
-      <c r="C9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="64.8">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" ht="32.4">
+      <c r="A11" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="32.4">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="64.8">
+      <c r="A12" t="s">
         <v>204</v>
       </c>
-      <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C12" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="64.8">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>207</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{07F0A5C0-1C13-4669-B238-4F0FC38455BC}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{127BB020-C20D-4725-9B05-B0336A4FBE00}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{92C55CE7-AC0C-47BE-9BB5-FB53D95932DB}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{BC5B0F77-3BC1-48B9-AE0A-B9177FA42EE3}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{9B220B4B-0317-43DC-AA6B-CB7E44404E13}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{AA7950E5-3914-43A0-B802-21FB79BCC93F}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{03A057AD-DF90-4DDA-B961-05C91FA62AC4}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{AFFD8BC6-AB69-4F46-9DBF-3946CEDBDE89}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{C2FDC980-5977-4B71-8C32-95C60EA6592C}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{8FD25E92-8E04-4109-BB28-D270C30CA75C}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{9FE7F1B0-C80E-43E4-B6D2-9867E1C49686}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{BF25378F-48CE-4492-B158-8926D0C90877}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C587F2-22C1-4CA2-8455-A0DC792065ED}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D31E4-AE00-47B2-9D3C-268C5FFD6FD9}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
-  <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="97.2">
-      <c r="A1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48.6">
-      <c r="A2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="64.8">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.4">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48.6">
-      <c r="A5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48.6">
-      <c r="A6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{C55D6F86-DFEA-4F97-9705-C32A31FCF618}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{4588A1AB-3A03-4F87-BF02-8F5E07BDCAEF}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{4046C524-D4CD-4525-BAC3-573D114AA00E}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{0B45F72B-12F4-4048-832E-F2B5603FF4E3}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{DBC9F56B-765D-4429-BF84-41C732F0CE00}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{CE9C46E6-4E96-475B-AFE8-F5E589305733}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{07F0A5C0-1C13-4669-B238-4F0FC38455BC}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{127BB020-C20D-4725-9B05-B0336A4FBE00}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{92C55CE7-AC0C-47BE-9BB5-FB53D95932DB}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{BC5B0F77-3BC1-48B9-AE0A-B9177FA42EE3}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{9B220B4B-0317-43DC-AA6B-CB7E44404E13}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{AA7950E5-3914-43A0-B802-21FB79BCC93F}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{03A057AD-DF90-4DDA-B961-05C91FA62AC4}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{AFFD8BC6-AB69-4F46-9DBF-3946CEDBDE89}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{C2FDC980-5977-4B71-8C32-95C60EA6592C}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{8FD25E92-8E04-4109-BB28-D270C30CA75C}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{9FE7F1B0-C80E-43E4-B6D2-9867E1C49686}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{BF25378F-48CE-4492-B158-8926D0C90877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
